--- a/src/test/resources/files/User_Management_ActDeact.xlsx
+++ b/src/test/resources/files/User_Management_ActDeact.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ZoneTest\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\smhassan\IdeaProjects\JmsPlay\src\test\resources\files\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView minimized="1" xWindow="0" yWindow="0" windowWidth="20430" windowHeight="7350" firstSheet="3" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20430" windowHeight="7350" firstSheet="1" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="checkDeactivationUserAndLogin1" sheetId="1" r:id="rId1"/>
@@ -500,7 +500,7 @@
   <dimension ref="A1:K2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+      <selection sqref="A1:I1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -691,8 +691,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="N12" sqref="N12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -867,7 +867,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
